--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/App-Fpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/App-Fpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>95.32301533333333</v>
+        <v>98.52314999999999</v>
       </c>
       <c r="H2">
-        <v>285.969046</v>
+        <v>295.56945</v>
       </c>
       <c r="I2">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="J2">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.4496786666666666</v>
+        <v>0.05424366666666666</v>
       </c>
       <c r="N2">
-        <v>1.349036</v>
+        <v>0.162731</v>
       </c>
       <c r="O2">
-        <v>0.003078235001572996</v>
+        <v>0.000335016072098112</v>
       </c>
       <c r="P2">
-        <v>0.003078235001572995</v>
+        <v>0.000335016072098112</v>
       </c>
       <c r="Q2">
-        <v>42.86472643773955</v>
+        <v>5.344256907549999</v>
       </c>
       <c r="R2">
-        <v>385.782537939656</v>
+        <v>48.09831216794999</v>
       </c>
       <c r="S2">
-        <v>0.0006421996217267058</v>
+        <v>5.169620826504649E-05</v>
       </c>
       <c r="T2">
-        <v>0.0006421996217267057</v>
+        <v>5.169620826504649E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>95.32301533333333</v>
+        <v>98.52314999999999</v>
       </c>
       <c r="H3">
-        <v>285.969046</v>
+        <v>295.56945</v>
       </c>
       <c r="I3">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="J3">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>8.943258333333334</v>
+        <v>0.4496786666666666</v>
       </c>
       <c r="N3">
-        <v>26.82977500000001</v>
+        <v>1.349036</v>
       </c>
       <c r="O3">
-        <v>0.0612202732094089</v>
+        <v>0.002777275023437136</v>
       </c>
       <c r="P3">
-        <v>0.06122027320940888</v>
+        <v>0.002777275023437136</v>
       </c>
       <c r="Q3">
-        <v>852.4983512382945</v>
+        <v>44.30375872779999</v>
       </c>
       <c r="R3">
-        <v>7672.485161144651</v>
+        <v>398.7338285501999</v>
       </c>
       <c r="S3">
-        <v>0.01277213607050711</v>
+        <v>0.0004285602989783462</v>
       </c>
       <c r="T3">
-        <v>0.01277213607050711</v>
+        <v>0.0004285602989783462</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>95.32301533333333</v>
+        <v>98.52314999999999</v>
       </c>
       <c r="H4">
-        <v>285.969046</v>
+        <v>295.56945</v>
       </c>
       <c r="I4">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="J4">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>131.4484583333333</v>
+        <v>19.12147066666667</v>
       </c>
       <c r="N4">
-        <v>394.345375</v>
+        <v>57.364412</v>
       </c>
       <c r="O4">
-        <v>0.8998186379262144</v>
+        <v>0.1180967362485193</v>
       </c>
       <c r="P4">
-        <v>0.8998186379262143</v>
+        <v>0.1180967362485194</v>
       </c>
       <c r="Q4">
-        <v>12530.06340925136</v>
+        <v>1883.9075227126</v>
       </c>
       <c r="R4">
-        <v>112770.5706832622</v>
+        <v>16955.1677044134</v>
       </c>
       <c r="S4">
-        <v>0.1877254948382964</v>
+        <v>0.01822346442751493</v>
       </c>
       <c r="T4">
-        <v>0.1877254948382963</v>
+        <v>0.01822346442751493</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>95.32301533333333</v>
+        <v>98.52314999999999</v>
       </c>
       <c r="H5">
-        <v>285.969046</v>
+        <v>295.56945</v>
       </c>
       <c r="I5">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="J5">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.241885</v>
+        <v>138.8619206666667</v>
       </c>
       <c r="N5">
-        <v>15.725655</v>
+        <v>416.585762</v>
       </c>
       <c r="O5">
-        <v>0.03588285386280381</v>
+        <v>0.8576296199079396</v>
       </c>
       <c r="P5">
-        <v>0.03588285386280379</v>
+        <v>0.8576296199079396</v>
       </c>
       <c r="Q5">
-        <v>499.67228423057</v>
+        <v>13681.1138391301</v>
       </c>
       <c r="R5">
-        <v>4497.05055807513</v>
+        <v>123130.0245521709</v>
       </c>
       <c r="S5">
-        <v>0.007486093545616783</v>
+        <v>0.1323405147919271</v>
       </c>
       <c r="T5">
-        <v>0.007486093545616779</v>
+        <v>0.1323405147919271</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>87.85366600000002</v>
+        <v>98.52314999999999</v>
       </c>
       <c r="H6">
-        <v>263.560998</v>
+        <v>295.56945</v>
       </c>
       <c r="I6">
-        <v>0.1922783515464171</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="J6">
-        <v>0.1922783515464171</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4496786666666666</v>
+        <v>3.426311333333333</v>
       </c>
       <c r="N6">
-        <v>1.349036</v>
+        <v>10.278934</v>
       </c>
       <c r="O6">
-        <v>0.003078235001572996</v>
+        <v>0.02116135274800581</v>
       </c>
       <c r="P6">
-        <v>0.003078235001572995</v>
+        <v>0.02116135274800582</v>
       </c>
       <c r="Q6">
-        <v>39.50591938865867</v>
+        <v>337.5709854406999</v>
       </c>
       <c r="R6">
-        <v>355.553274497928</v>
+        <v>3038.138868966299</v>
       </c>
       <c r="S6">
-        <v>0.0005918779517749383</v>
+        <v>0.003265400647735634</v>
       </c>
       <c r="T6">
-        <v>0.0005918779517749381</v>
+        <v>0.003265400647735634</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,40 +859,40 @@
         <v>263.560998</v>
       </c>
       <c r="I7">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="J7">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>8.943258333333334</v>
+        <v>0.05424366666666666</v>
       </c>
       <c r="N7">
-        <v>26.82977500000001</v>
+        <v>0.162731</v>
       </c>
       <c r="O7">
-        <v>0.0612202732094089</v>
+        <v>0.000335016072098112</v>
       </c>
       <c r="P7">
-        <v>0.06122027320940888</v>
+        <v>0.000335016072098112</v>
       </c>
       <c r="Q7">
-        <v>785.6980305683836</v>
+        <v>4.765504973948667</v>
       </c>
       <c r="R7">
-        <v>7071.282275115453</v>
+        <v>42.88954476553801</v>
       </c>
       <c r="S7">
-        <v>0.01177133321392643</v>
+        <v>4.609780964558924E-05</v>
       </c>
       <c r="T7">
-        <v>0.01177133321392642</v>
+        <v>4.609780964558924E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>263.560998</v>
       </c>
       <c r="I8">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="J8">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>131.4484583333333</v>
+        <v>0.4496786666666666</v>
       </c>
       <c r="N8">
-        <v>394.345375</v>
+        <v>1.349036</v>
       </c>
       <c r="O8">
-        <v>0.8998186379262144</v>
+        <v>0.002777275023437136</v>
       </c>
       <c r="P8">
-        <v>0.8998186379262143</v>
+        <v>0.002777275023437136</v>
       </c>
       <c r="Q8">
-        <v>11548.22895463158</v>
+        <v>39.50591938865867</v>
       </c>
       <c r="R8">
-        <v>103934.0605916843</v>
+        <v>355.553274497928</v>
       </c>
       <c r="S8">
-        <v>0.1730156443911949</v>
+        <v>0.0003821497116901336</v>
       </c>
       <c r="T8">
-        <v>0.1730156443911948</v>
+        <v>0.0003821497116901336</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,10 +983,10 @@
         <v>263.560998</v>
       </c>
       <c r="I9">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="J9">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,33 +995,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.241885</v>
+        <v>19.12147066666667</v>
       </c>
       <c r="N9">
-        <v>15.725655</v>
+        <v>57.364412</v>
       </c>
       <c r="O9">
-        <v>0.03588285386280381</v>
+        <v>0.1180967362485193</v>
       </c>
       <c r="P9">
-        <v>0.03588285386280379</v>
+        <v>0.1180967362485194</v>
       </c>
       <c r="Q9">
-        <v>460.5188140004101</v>
+        <v>1679.891297378131</v>
       </c>
       <c r="R9">
-        <v>4144.669326003691</v>
+        <v>15119.02167640318</v>
       </c>
       <c r="S9">
-        <v>0.006899495989520902</v>
+        <v>0.01624996924253618</v>
       </c>
       <c r="T9">
-        <v>0.006899495989520898</v>
+        <v>0.01624996924253618</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>89.00545999999999</v>
+        <v>87.85366600000002</v>
       </c>
       <c r="H10">
-        <v>267.01638</v>
+        <v>263.560998</v>
       </c>
       <c r="I10">
-        <v>0.1947991917312883</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="J10">
-        <v>0.1947991917312882</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4496786666666666</v>
+        <v>138.8619206666667</v>
       </c>
       <c r="N10">
-        <v>1.349036</v>
+        <v>416.585762</v>
       </c>
       <c r="O10">
-        <v>0.003078235001572996</v>
+        <v>0.8576296199079396</v>
       </c>
       <c r="P10">
-        <v>0.003078235001572995</v>
+        <v>0.8576296199079396</v>
       </c>
       <c r="Q10">
-        <v>40.02385657885332</v>
+        <v>12199.52879836783</v>
       </c>
       <c r="R10">
-        <v>360.2147092096799</v>
+        <v>109795.7591853105</v>
       </c>
       <c r="S10">
-        <v>0.0005996376902653804</v>
+        <v>0.118008806912873</v>
       </c>
       <c r="T10">
-        <v>0.0005996376902653802</v>
+        <v>0.118008806912873</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>89.00545999999999</v>
+        <v>87.85366600000002</v>
       </c>
       <c r="H11">
-        <v>267.01638</v>
+        <v>263.560998</v>
       </c>
       <c r="I11">
-        <v>0.1947991917312883</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="J11">
-        <v>0.1947991917312882</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.943258333333334</v>
+        <v>3.426311333333333</v>
       </c>
       <c r="N11">
-        <v>26.82977500000001</v>
+        <v>10.278934</v>
       </c>
       <c r="O11">
-        <v>0.0612202732094089</v>
+        <v>0.02116135274800581</v>
       </c>
       <c r="P11">
-        <v>0.06122027320940888</v>
+        <v>0.02116135274800582</v>
       </c>
       <c r="Q11">
-        <v>795.9988218571666</v>
+        <v>301.0140114906814</v>
       </c>
       <c r="R11">
-        <v>7163.989396714501</v>
+        <v>2709.126103416132</v>
       </c>
       <c r="S11">
-        <v>0.01192565973876149</v>
+        <v>0.002911776753609178</v>
       </c>
       <c r="T11">
-        <v>0.01192565973876149</v>
+        <v>0.002911776753609179</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>89.00545999999999</v>
+        <v>137.0699463333333</v>
       </c>
       <c r="H12">
-        <v>267.01638</v>
+        <v>411.209839</v>
       </c>
       <c r="I12">
-        <v>0.1947991917312883</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="J12">
-        <v>0.1947991917312882</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>131.4484583333333</v>
+        <v>0.05424366666666666</v>
       </c>
       <c r="N12">
-        <v>394.345375</v>
+        <v>0.162731</v>
       </c>
       <c r="O12">
-        <v>0.8998186379262144</v>
+        <v>0.000335016072098112</v>
       </c>
       <c r="P12">
-        <v>0.8998186379262143</v>
+        <v>0.000335016072098112</v>
       </c>
       <c r="Q12">
-        <v>11699.63050024916</v>
+        <v>7.435176478923221</v>
       </c>
       <c r="R12">
-        <v>105296.6745022425</v>
+        <v>66.916588310309</v>
       </c>
       <c r="S12">
-        <v>0.1752839433727753</v>
+        <v>7.192214715553397E-05</v>
       </c>
       <c r="T12">
-        <v>0.1752839433727753</v>
+        <v>7.192214715553397E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,51 +1225,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>89.00545999999999</v>
+        <v>137.0699463333333</v>
       </c>
       <c r="H13">
-        <v>267.01638</v>
+        <v>411.209839</v>
       </c>
       <c r="I13">
-        <v>0.1947991917312883</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="J13">
-        <v>0.1947991917312882</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>5.241885</v>
+        <v>0.4496786666666666</v>
       </c>
       <c r="N13">
-        <v>15.725655</v>
+        <v>1.349036</v>
       </c>
       <c r="O13">
-        <v>0.03588285386280381</v>
+        <v>0.002777275023437136</v>
       </c>
       <c r="P13">
-        <v>0.03588285386280379</v>
+        <v>0.002777275023437136</v>
       </c>
       <c r="Q13">
-        <v>466.5563856920999</v>
+        <v>61.63743070724487</v>
       </c>
       <c r="R13">
-        <v>4199.0074712289</v>
+        <v>554.7368763652039</v>
       </c>
       <c r="S13">
-        <v>0.006989950929486117</v>
+        <v>0.0005962328364608644</v>
       </c>
       <c r="T13">
-        <v>0.006989950929486113</v>
+        <v>0.0005962328364608644</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,51 +1287,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>44.07463300000001</v>
+        <v>137.0699463333333</v>
       </c>
       <c r="H14">
-        <v>132.223899</v>
+        <v>411.209839</v>
       </c>
       <c r="I14">
-        <v>0.09646265391194167</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="J14">
-        <v>0.09646265391194166</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.4496786666666666</v>
+        <v>19.12147066666667</v>
       </c>
       <c r="N14">
-        <v>1.349036</v>
+        <v>57.364412</v>
       </c>
       <c r="O14">
-        <v>0.003078235001572996</v>
+        <v>0.1180967362485193</v>
       </c>
       <c r="P14">
-        <v>0.003078235001572995</v>
+        <v>0.1180967362485194</v>
       </c>
       <c r="Q14">
-        <v>19.81942220126267</v>
+        <v>2620.978958094408</v>
       </c>
       <c r="R14">
-        <v>178.374799811364</v>
+        <v>23588.81062284967</v>
       </c>
       <c r="S14">
-        <v>0.0002969347176163611</v>
+        <v>0.02535332346851355</v>
       </c>
       <c r="T14">
-        <v>0.000296934717616361</v>
+        <v>0.02535332346851355</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>44.07463300000001</v>
+        <v>137.0699463333333</v>
       </c>
       <c r="H15">
-        <v>132.223899</v>
+        <v>411.209839</v>
       </c>
       <c r="I15">
-        <v>0.09646265391194167</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="J15">
-        <v>0.09646265391194166</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,33 +1367,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.943258333333334</v>
+        <v>138.8619206666667</v>
       </c>
       <c r="N15">
-        <v>26.82977500000001</v>
+        <v>416.585762</v>
       </c>
       <c r="O15">
-        <v>0.0612202732094089</v>
+        <v>0.8576296199079396</v>
       </c>
       <c r="P15">
-        <v>0.06122027320940888</v>
+        <v>0.8576296199079396</v>
       </c>
       <c r="Q15">
-        <v>394.1708288658584</v>
+        <v>19033.79601352359</v>
       </c>
       <c r="R15">
-        <v>3547.537459792726</v>
+        <v>171304.1641217123</v>
       </c>
       <c r="S15">
-        <v>0.005905470026993725</v>
+        <v>0.1841182225726153</v>
       </c>
       <c r="T15">
-        <v>0.005905470026993723</v>
+        <v>0.1841182225726153</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>44.07463300000001</v>
+        <v>137.0699463333333</v>
       </c>
       <c r="H16">
-        <v>132.223899</v>
+        <v>411.209839</v>
       </c>
       <c r="I16">
-        <v>0.09646265391194167</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="J16">
-        <v>0.09646265391194166</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>131.4484583333333</v>
+        <v>3.426311333333333</v>
       </c>
       <c r="N16">
-        <v>394.345375</v>
+        <v>10.278934</v>
       </c>
       <c r="O16">
-        <v>0.8998186379262144</v>
+        <v>0.02116135274800581</v>
       </c>
       <c r="P16">
-        <v>0.8998186379262143</v>
+        <v>0.02116135274800582</v>
       </c>
       <c r="Q16">
-        <v>5793.542559457458</v>
+        <v>469.6443105812917</v>
       </c>
       <c r="R16">
-        <v>52141.88303511713</v>
+        <v>4226.798795231625</v>
       </c>
       <c r="S16">
-        <v>0.08679889385379118</v>
+        <v>0.004542975854324139</v>
       </c>
       <c r="T16">
-        <v>0.08679889385379115</v>
+        <v>0.004542975854324139</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>44.07463300000001</v>
+        <v>18.36172366666667</v>
       </c>
       <c r="H17">
-        <v>132.223899</v>
+        <v>55.085171</v>
       </c>
       <c r="I17">
-        <v>0.09646265391194167</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="J17">
-        <v>0.09646265391194166</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>5.241885</v>
+        <v>0.05424366666666666</v>
       </c>
       <c r="N17">
-        <v>15.725655</v>
+        <v>0.162731</v>
       </c>
       <c r="O17">
-        <v>0.03588285386280381</v>
+        <v>0.000335016072098112</v>
       </c>
       <c r="P17">
-        <v>0.03588285386280379</v>
+        <v>0.000335016072098112</v>
       </c>
       <c r="Q17">
-        <v>231.034157603205</v>
+        <v>0.996007218000111</v>
       </c>
       <c r="R17">
-        <v>2079.307418428845</v>
+        <v>8.964064962001</v>
       </c>
       <c r="S17">
-        <v>0.003461355313540423</v>
+        <v>9.634603550305013E-06</v>
       </c>
       <c r="T17">
-        <v>0.003461355313540421</v>
+        <v>9.634603550305013E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>72.54370233333333</v>
+        <v>18.36172366666667</v>
       </c>
       <c r="H18">
-        <v>217.631107</v>
+        <v>55.085171</v>
       </c>
       <c r="I18">
-        <v>0.1587706482245977</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="J18">
-        <v>0.1587706482245977</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1559,27 +1559,27 @@
         <v>1.349036</v>
       </c>
       <c r="O18">
-        <v>0.003078235001572996</v>
+        <v>0.002777275023437136</v>
       </c>
       <c r="P18">
-        <v>0.003078235001572995</v>
+        <v>0.002777275023437136</v>
       </c>
       <c r="Q18">
-        <v>32.62135534031688</v>
+        <v>8.256875416128443</v>
       </c>
       <c r="R18">
-        <v>293.5921980628519</v>
+        <v>74.31187874515599</v>
       </c>
       <c r="S18">
-        <v>0.0004887333665873902</v>
+        <v>7.987062720126634E-05</v>
       </c>
       <c r="T18">
-        <v>0.00048873336658739</v>
+        <v>7.987062720126634E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>72.54370233333333</v>
+        <v>18.36172366666667</v>
       </c>
       <c r="H19">
-        <v>217.631107</v>
+        <v>55.085171</v>
       </c>
       <c r="I19">
-        <v>0.1587706482245977</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="J19">
-        <v>0.1587706482245977</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,33 +1615,33 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.943258333333334</v>
+        <v>19.12147066666667</v>
       </c>
       <c r="N19">
-        <v>26.82977500000001</v>
+        <v>57.364412</v>
       </c>
       <c r="O19">
-        <v>0.0612202732094089</v>
+        <v>0.1180967362485193</v>
       </c>
       <c r="P19">
-        <v>0.06122027320940888</v>
+        <v>0.1180967362485194</v>
       </c>
       <c r="Q19">
-        <v>648.7770704234362</v>
+        <v>351.1031604816058</v>
       </c>
       <c r="R19">
-        <v>5838.993633810926</v>
+        <v>3159.928444334452</v>
       </c>
       <c r="S19">
-        <v>0.009719982461944826</v>
+        <v>0.00339630044377752</v>
       </c>
       <c r="T19">
-        <v>0.009719982461944821</v>
+        <v>0.00339630044377752</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>72.54370233333333</v>
+        <v>18.36172366666667</v>
       </c>
       <c r="H20">
-        <v>217.631107</v>
+        <v>55.085171</v>
       </c>
       <c r="I20">
-        <v>0.1587706482245977</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="J20">
-        <v>0.1587706482245977</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,33 +1677,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>131.4484583333333</v>
+        <v>138.8619206666667</v>
       </c>
       <c r="N20">
-        <v>394.345375</v>
+        <v>416.585762</v>
       </c>
       <c r="O20">
-        <v>0.8998186379262144</v>
+        <v>0.8576296199079396</v>
       </c>
       <c r="P20">
-        <v>0.8998186379262143</v>
+        <v>0.8576296199079396</v>
       </c>
       <c r="Q20">
-        <v>9535.757833508902</v>
+        <v>2549.744215103922</v>
       </c>
       <c r="R20">
-        <v>85821.82050158012</v>
+        <v>22947.6979359353</v>
       </c>
       <c r="S20">
-        <v>0.1428647884281197</v>
+        <v>0.02466425365524528</v>
       </c>
       <c r="T20">
-        <v>0.1428647884281196</v>
+        <v>0.02466425365524528</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>72.54370233333333</v>
+        <v>18.36172366666667</v>
       </c>
       <c r="H21">
-        <v>217.631107</v>
+        <v>55.085171</v>
       </c>
       <c r="I21">
-        <v>0.1587706482245977</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="J21">
-        <v>0.1587706482245977</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,33 +1739,33 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.241885</v>
+        <v>3.426311333333333</v>
       </c>
       <c r="N21">
-        <v>15.725655</v>
+        <v>10.278934</v>
       </c>
       <c r="O21">
-        <v>0.03588285386280381</v>
+        <v>0.02116135274800581</v>
       </c>
       <c r="P21">
-        <v>0.03588285386280379</v>
+        <v>0.02116135274800582</v>
       </c>
       <c r="Q21">
-        <v>380.265745105565</v>
+        <v>62.91298189863488</v>
       </c>
       <c r="R21">
-        <v>3422.391705950085</v>
+        <v>566.216837087714</v>
       </c>
       <c r="S21">
-        <v>0.005697143967945872</v>
+        <v>0.0006085715322203569</v>
       </c>
       <c r="T21">
-        <v>0.005697143967945868</v>
+        <v>0.000608571532220357</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,51 +1783,51 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>68.108298</v>
+        <v>90.60931133333334</v>
       </c>
       <c r="H22">
-        <v>204.324894</v>
+        <v>271.827934</v>
       </c>
       <c r="I22">
-        <v>0.1490632305096083</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="J22">
-        <v>0.1490632305096083</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.4496786666666666</v>
+        <v>0.05424366666666666</v>
       </c>
       <c r="N22">
-        <v>1.349036</v>
+        <v>0.162731</v>
       </c>
       <c r="O22">
-        <v>0.003078235001572996</v>
+        <v>0.000335016072098112</v>
       </c>
       <c r="P22">
-        <v>0.003078235001572995</v>
+        <v>0.000335016072098112</v>
       </c>
       <c r="Q22">
-        <v>30.626848633576</v>
+        <v>4.914981280861555</v>
       </c>
       <c r="R22">
-        <v>275.641637702184</v>
+        <v>44.234831527754</v>
       </c>
       <c r="S22">
-        <v>0.0004588516536022199</v>
+        <v>4.754372783899457E-05</v>
       </c>
       <c r="T22">
-        <v>0.0004588516536022197</v>
+        <v>4.754372783899457E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,51 +1845,51 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>68.108298</v>
+        <v>90.60931133333334</v>
       </c>
       <c r="H23">
-        <v>204.324894</v>
+        <v>271.827934</v>
       </c>
       <c r="I23">
-        <v>0.1490632305096083</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="J23">
-        <v>0.1490632305096083</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>8.943258333333334</v>
+        <v>0.4496786666666666</v>
       </c>
       <c r="N23">
-        <v>26.82977500000001</v>
+        <v>1.349036</v>
       </c>
       <c r="O23">
-        <v>0.0612202732094089</v>
+        <v>0.002777275023437136</v>
       </c>
       <c r="P23">
-        <v>0.06122027320940888</v>
+        <v>0.002777275023437136</v>
       </c>
       <c r="Q23">
-        <v>609.1101036576501</v>
+        <v>40.74507430795822</v>
       </c>
       <c r="R23">
-        <v>5481.990932918852</v>
+        <v>366.705668771624</v>
       </c>
       <c r="S23">
-        <v>0.009125691697275316</v>
+        <v>0.000394136338061008</v>
       </c>
       <c r="T23">
-        <v>0.009125691697275312</v>
+        <v>0.000394136338061008</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>68.108298</v>
+        <v>90.60931133333334</v>
       </c>
       <c r="H24">
-        <v>204.324894</v>
+        <v>271.827934</v>
       </c>
       <c r="I24">
-        <v>0.1490632305096083</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="J24">
-        <v>0.1490632305096083</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,90 +1925,462 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>131.4484583333333</v>
+        <v>19.12147066666667</v>
       </c>
       <c r="N24">
-        <v>394.345375</v>
+        <v>57.364412</v>
       </c>
       <c r="O24">
-        <v>0.8998186379262144</v>
+        <v>0.1180967362485193</v>
       </c>
       <c r="P24">
-        <v>0.8998186379262143</v>
+        <v>0.1180967362485194</v>
       </c>
       <c r="Q24">
-        <v>8952.73077180725</v>
+        <v>1732.583288787201</v>
       </c>
       <c r="R24">
-        <v>80574.57694626525</v>
+        <v>15593.24959908481</v>
       </c>
       <c r="S24">
-        <v>0.1341298730420371</v>
+        <v>0.01675967081731173</v>
       </c>
       <c r="T24">
-        <v>0.134129873042037</v>
+        <v>0.01675967081731173</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>90.60931133333334</v>
+      </c>
+      <c r="H25">
+        <v>271.827934</v>
+      </c>
+      <c r="I25">
+        <v>0.1419147670774166</v>
+      </c>
+      <c r="J25">
+        <v>0.1419147670774166</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>138.8619206666667</v>
+      </c>
+      <c r="N25">
+        <v>416.585762</v>
+      </c>
+      <c r="O25">
+        <v>0.8576296199079396</v>
+      </c>
+      <c r="P25">
+        <v>0.8576296199079396</v>
+      </c>
+      <c r="Q25">
+        <v>12582.18300203064</v>
+      </c>
+      <c r="R25">
+        <v>113239.6470182757</v>
+      </c>
+      <c r="S25">
+        <v>0.1217103077479286</v>
+      </c>
+      <c r="T25">
+        <v>0.1217103077479286</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>90.60931133333334</v>
+      </c>
+      <c r="H26">
+        <v>271.827934</v>
+      </c>
+      <c r="I26">
+        <v>0.1419147670774166</v>
+      </c>
+      <c r="J26">
+        <v>0.1419147670774166</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.426311333333333</v>
+      </c>
+      <c r="N26">
+        <v>10.278934</v>
+      </c>
+      <c r="O26">
+        <v>0.02116135274800581</v>
+      </c>
+      <c r="P26">
+        <v>0.02116135274800582</v>
+      </c>
+      <c r="Q26">
+        <v>310.4557103269285</v>
+      </c>
+      <c r="R26">
+        <v>2794.101392942356</v>
+      </c>
+      <c r="S26">
+        <v>0.003003108446276295</v>
+      </c>
+      <c r="T26">
+        <v>0.003003108446276296</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>68.108298</v>
-      </c>
-      <c r="H25">
-        <v>204.324894</v>
-      </c>
-      <c r="I25">
-        <v>0.1490632305096083</v>
-      </c>
-      <c r="J25">
-        <v>0.1490632305096083</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>5.241885</v>
-      </c>
-      <c r="N25">
-        <v>15.725655</v>
-      </c>
-      <c r="O25">
-        <v>0.03588285386280381</v>
-      </c>
-      <c r="P25">
-        <v>0.03588285386280379</v>
-      </c>
-      <c r="Q25">
-        <v>357.01586566173</v>
-      </c>
-      <c r="R25">
-        <v>3213.14279095557</v>
-      </c>
-      <c r="S25">
-        <v>0.005348814116693712</v>
-      </c>
-      <c r="T25">
-        <v>0.005348814116693709</v>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>206.0591786666667</v>
+      </c>
+      <c r="H27">
+        <v>618.177536</v>
+      </c>
+      <c r="I27">
+        <v>0.322735488376744</v>
+      </c>
+      <c r="J27">
+        <v>0.322735488376744</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.05424366666666666</v>
+      </c>
+      <c r="N27">
+        <v>0.162731</v>
+      </c>
+      <c r="O27">
+        <v>0.000335016072098112</v>
+      </c>
+      <c r="P27">
+        <v>0.000335016072098112</v>
+      </c>
+      <c r="Q27">
+        <v>11.17740540120178</v>
+      </c>
+      <c r="R27">
+        <v>100.596648610816</v>
+      </c>
+      <c r="S27">
+        <v>0.0001081215756426426</v>
+      </c>
+      <c r="T27">
+        <v>0.0001081215756426426</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>206.0591786666667</v>
+      </c>
+      <c r="H28">
+        <v>618.177536</v>
+      </c>
+      <c r="I28">
+        <v>0.322735488376744</v>
+      </c>
+      <c r="J28">
+        <v>0.322735488376744</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.4496786666666666</v>
+      </c>
+      <c r="N28">
+        <v>1.349036</v>
+      </c>
+      <c r="O28">
+        <v>0.002777275023437136</v>
+      </c>
+      <c r="P28">
+        <v>0.002777275023437136</v>
+      </c>
+      <c r="Q28">
+        <v>92.6604167172551</v>
+      </c>
+      <c r="R28">
+        <v>833.943750455296</v>
+      </c>
+      <c r="S28">
+        <v>0.0008963252110455172</v>
+      </c>
+      <c r="T28">
+        <v>0.0008963252110455172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>206.0591786666667</v>
+      </c>
+      <c r="H29">
+        <v>618.177536</v>
+      </c>
+      <c r="I29">
+        <v>0.322735488376744</v>
+      </c>
+      <c r="J29">
+        <v>0.322735488376744</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>19.12147066666667</v>
+      </c>
+      <c r="N29">
+        <v>57.364412</v>
+      </c>
+      <c r="O29">
+        <v>0.1180967362485193</v>
+      </c>
+      <c r="P29">
+        <v>0.1180967362485194</v>
+      </c>
+      <c r="Q29">
+        <v>3940.154540472093</v>
+      </c>
+      <c r="R29">
+        <v>35461.39086424883</v>
+      </c>
+      <c r="S29">
+        <v>0.03811400784886541</v>
+      </c>
+      <c r="T29">
+        <v>0.03811400784886541</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>206.0591786666667</v>
+      </c>
+      <c r="H30">
+        <v>618.177536</v>
+      </c>
+      <c r="I30">
+        <v>0.322735488376744</v>
+      </c>
+      <c r="J30">
+        <v>0.322735488376744</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>138.8619206666667</v>
+      </c>
+      <c r="N30">
+        <v>416.585762</v>
+      </c>
+      <c r="O30">
+        <v>0.8576296199079396</v>
+      </c>
+      <c r="P30">
+        <v>0.8576296199079396</v>
+      </c>
+      <c r="Q30">
+        <v>28613.77332064916</v>
+      </c>
+      <c r="R30">
+        <v>257523.9598858424</v>
+      </c>
+      <c r="S30">
+        <v>0.2767875142273502</v>
+      </c>
+      <c r="T30">
+        <v>0.2767875142273502</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>206.0591786666667</v>
+      </c>
+      <c r="H31">
+        <v>618.177536</v>
+      </c>
+      <c r="I31">
+        <v>0.322735488376744</v>
+      </c>
+      <c r="J31">
+        <v>0.322735488376744</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>3.426311333333333</v>
+      </c>
+      <c r="N31">
+        <v>10.278934</v>
+      </c>
+      <c r="O31">
+        <v>0.02116135274800581</v>
+      </c>
+      <c r="P31">
+        <v>0.02116135274800582</v>
+      </c>
+      <c r="Q31">
+        <v>706.0228992029581</v>
+      </c>
+      <c r="R31">
+        <v>6354.206092826624</v>
+      </c>
+      <c r="S31">
+        <v>0.00682951951384021</v>
+      </c>
+      <c r="T31">
+        <v>0.006829519513840211</v>
       </c>
     </row>
   </sheetData>
